--- a/diaries/diary-Yilin Wang.xlsx
+++ b/diaries/diary-Yilin Wang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwan\Documents\Study\reverse engineering\SWE265P\diaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwan\Documents\Study\reverse_engineering\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681102A4-CAD3-4431-B4E4-CDE469E16A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E219A3-DFA2-491B-BD77-56F0B2677D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Not bad, not good.</t>
+  </si>
+  <si>
+    <t>Xiaolue Peng, Lindsay Garcia</t>
+  </si>
+  <si>
+    <t>Learn how to read source code</t>
+  </si>
+  <si>
+    <t>Find a beacon to start reading code.Know about the influence of familiarity. Know about how to What's real life of software engineer</t>
+  </si>
+  <si>
+    <t>When looking at new code project, it's normal to feel overwhelming and confused. Starting to find the beacon or using the find to search key words, reading could be easier.</t>
+  </si>
+  <si>
+    <t>Awesome.</t>
   </si>
 </sst>
 </file>
@@ -279,14 +294,14 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="19" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -608,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,24 +633,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -727,10 +742,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>43839</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>0.90277777777777779</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -749,27 +764,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
+    <row r="11" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>43846</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.90972222222222221</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
